--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -1,123 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
-  <si>
-    <t>viewCount</t>
-  </si>
-  <si>
-    <t>subscriberCount</t>
-  </si>
-  <si>
-    <t>hiddenSubscriberCount</t>
-  </si>
-  <si>
-    <t>videoCount</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>33213559191</t>
-  </si>
-  <si>
-    <t>33227516856</t>
-  </si>
-  <si>
-    <t>91300000</t>
-  </si>
-  <si>
-    <t>91400000</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
-  </si>
-  <si>
-    <t>2023-09-24</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
-    <t>16:59:49.590354</t>
-  </si>
-  <si>
-    <t>16:00:55.271008</t>
-  </si>
-  <si>
-    <t>16:00:36.000218</t>
-  </si>
-  <si>
-    <t>16:00:28.144069</t>
-  </si>
-  <si>
-    <t>16:00:36.816979</t>
-  </si>
-  <si>
-    <t>16:02:54.036553</t>
-  </si>
-  <si>
-    <t>17:19:46.771933</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,174 +420,262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>viewCount</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subscriberCount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>hiddenSubscriberCount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>videoCount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>33213559191</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>91300000</t>
+        </is>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:59:49.590354</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:00:55.271008</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:00:36.000218</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16:00:28.144069</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:00:36.816979</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16:02:54.036553</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11:43:03.246639</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11:43:03.246639</t>
+          <t>11:57:21.016254</t>
         </is>
       </c>
     </row>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11:57:21.016254</t>
+          <t>12:38:11.768052</t>
         </is>
       </c>
     </row>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12:38:11.768052</t>
+          <t>13:22:15.358926</t>
         </is>
       </c>
     </row>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +675,36 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>00:50:02.723834</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,36 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>00:49:52.663531</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,36 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>91400000</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>00:49:22.078892</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,6 +765,36 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>91500000</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>00:49:22.858863</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,36 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>91500000</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>00:47:59.154111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,6 +825,36 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>91500000</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>00:56:09.255648</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +855,36 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>91500000</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>00:50:22.229624</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +885,36 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>91500000</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>00:50:13.207612</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,6 +915,36 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>91500000</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>00:50:28.397848</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,6 +945,36 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>91500000</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>00:49:57.078584</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,6 +975,36 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>91500000</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>00:49:44.018147</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,6 +1005,36 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>91600000</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>00:48:52.580649</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,36 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>91600000</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>00:53:04.194573</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,6 +1065,36 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>91700000</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>00:50:13.098372</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,6 +1095,36 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>91700000</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>00:49:09.688512</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,6 +1125,36 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>33227516856</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>91700000</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>00:49:30.041179</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,6 +1155,36 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>91700000</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>00:47:11.008133</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1185,6 +1185,36 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>91700000</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>00:51:11.443400</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +1215,36 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>91700000</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>00:47:49.096696</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1245,36 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>00:53:26.823703</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,6 +1275,36 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>00:51:07.272842</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,6 +1305,36 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>00:50:27.582131</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,6 +1335,36 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>00:50:09.607688</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,6 +1365,36 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>00:49:49.936761</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1395,6 +1395,36 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>00:49:41.178207</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,6 +1425,36 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>00:47:56.667817</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1455,6 +1455,36 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>00:53:13.075944</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,6 +1485,36 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>91800000</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>00:50:09.023890</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1515,6 +1515,36 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>91900000</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>00:49:37.119104</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,6 +1545,36 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>91900000</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>00:49:46.082646</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_channel_data.xlsx
+++ b/CLEANED_channel_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,6 +1575,36 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>33567618140</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>91900000</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>00:48:33.082595</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
